--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ncam1-Gfra1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ncam1-Gfra1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.9404873333333333</v>
+        <v>0.05354133333333333</v>
       </c>
       <c r="H2">
-        <v>2.821462</v>
+        <v>0.160624</v>
       </c>
       <c r="I2">
-        <v>0.02000383747045655</v>
+        <v>0.00209946492164722</v>
       </c>
       <c r="J2">
-        <v>0.02000383747045654</v>
+        <v>0.00209946492164722</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>8.922308333333334</v>
+        <v>0.048574</v>
       </c>
       <c r="N2">
-        <v>26.766925</v>
+        <v>0.145722</v>
       </c>
       <c r="O2">
-        <v>0.6138261687668722</v>
+        <v>0.003596689925699211</v>
       </c>
       <c r="P2">
-        <v>0.6138261687668722</v>
+        <v>0.003596689925699211</v>
       </c>
       <c r="Q2">
-        <v>8.391317971594445</v>
+        <v>0.002600716725333333</v>
       </c>
       <c r="R2">
-        <v>75.52186174435001</v>
+        <v>0.023406450528</v>
       </c>
       <c r="S2">
-        <v>0.01227887891512554</v>
+        <v>7.551124333047438E-06</v>
       </c>
       <c r="T2">
-        <v>0.01227887891512554</v>
+        <v>7.551124333047438E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,25 +587,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.9404873333333333</v>
+        <v>0.05354133333333333</v>
       </c>
       <c r="H3">
-        <v>2.821462</v>
+        <v>0.160624</v>
       </c>
       <c r="I3">
-        <v>0.02000383747045655</v>
+        <v>0.00209946492164722</v>
       </c>
       <c r="J3">
-        <v>0.02000383747045654</v>
+        <v>0.00209946492164722</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,33 +614,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.613253666666666</v>
+        <v>8.922308333333334</v>
       </c>
       <c r="N3">
-        <v>16.839761</v>
+        <v>26.766925</v>
       </c>
       <c r="O3">
-        <v>0.3861738312331279</v>
+        <v>0.6606574812962104</v>
       </c>
       <c r="P3">
-        <v>0.3861738312331279</v>
+        <v>0.6606574812962104</v>
       </c>
       <c r="Q3">
-        <v>5.279193972286889</v>
+        <v>0.4777122845777778</v>
       </c>
       <c r="R3">
-        <v>47.512745750582</v>
+        <v>4.2994105612</v>
       </c>
       <c r="S3">
-        <v>0.007724958555331006</v>
+        <v>0.001387027207205198</v>
       </c>
       <c r="T3">
-        <v>0.007724958555331004</v>
+        <v>0.001387027207205198</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,25 +649,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.392600333333333</v>
+        <v>0.05354133333333333</v>
       </c>
       <c r="H4">
-        <v>4.177801000000001</v>
+        <v>0.160624</v>
       </c>
       <c r="I4">
-        <v>0.0296201232509638</v>
+        <v>0.00209946492164722</v>
       </c>
       <c r="J4">
-        <v>0.0296201232509638</v>
+        <v>0.00209946492164722</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.922308333333334</v>
+        <v>4.534313</v>
       </c>
       <c r="N4">
-        <v>26.766925</v>
+        <v>13.602939</v>
       </c>
       <c r="O4">
-        <v>0.6138261687668722</v>
+        <v>0.3357458287780905</v>
       </c>
       <c r="P4">
-        <v>0.6138261687668722</v>
+        <v>0.3357458287780905</v>
       </c>
       <c r="Q4">
-        <v>12.42520955910278</v>
+        <v>0.2427731637706667</v>
       </c>
       <c r="R4">
-        <v>111.826886031925</v>
+        <v>2.184958473936</v>
       </c>
       <c r="S4">
-        <v>0.01818160677354166</v>
+        <v>0.0007048865901089745</v>
       </c>
       <c r="T4">
-        <v>0.01818160677354166</v>
+        <v>0.0007048865901089745</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>4.177801000000001</v>
       </c>
       <c r="I5">
-        <v>0.0296201232509638</v>
+        <v>0.05460670042535784</v>
       </c>
       <c r="J5">
-        <v>0.0296201232509638</v>
+        <v>0.05460670042535784</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>5.613253666666666</v>
+        <v>0.048574</v>
       </c>
       <c r="N5">
-        <v>16.839761</v>
+        <v>0.145722</v>
       </c>
       <c r="O5">
-        <v>0.3861738312331279</v>
+        <v>0.003596689925699211</v>
       </c>
       <c r="P5">
-        <v>0.3861738312331279</v>
+        <v>0.003596689925699211</v>
       </c>
       <c r="Q5">
-        <v>7.817018927284556</v>
+        <v>0.06764416859133333</v>
       </c>
       <c r="R5">
-        <v>70.35317034556101</v>
+        <v>0.608797517322</v>
       </c>
       <c r="S5">
-        <v>0.01143851647742214</v>
+        <v>0.0001964033692955594</v>
       </c>
       <c r="T5">
-        <v>0.01143851647742214</v>
+        <v>0.0001964033692955594</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>44.682258</v>
+        <v>1.392600333333333</v>
       </c>
       <c r="H6">
-        <v>134.046774</v>
+        <v>4.177801000000001</v>
       </c>
       <c r="I6">
-        <v>0.9503760392785797</v>
+        <v>0.05460670042535784</v>
       </c>
       <c r="J6">
-        <v>0.9503760392785796</v>
+        <v>0.05460670042535784</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,27 +806,27 @@
         <v>26.766925</v>
       </c>
       <c r="O6">
-        <v>0.6138261687668722</v>
+        <v>0.6606574812962104</v>
       </c>
       <c r="P6">
-        <v>0.6138261687668722</v>
+        <v>0.6606574812962104</v>
       </c>
       <c r="Q6">
-        <v>398.66888290555</v>
+        <v>12.42520955910278</v>
       </c>
       <c r="R6">
-        <v>3588.01994614995</v>
+        <v>111.826886031925</v>
       </c>
       <c r="S6">
-        <v>0.583365683078205</v>
+        <v>0.03607632516491361</v>
       </c>
       <c r="T6">
-        <v>0.583365683078205</v>
+        <v>0.03607632516491361</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>44.682258</v>
+        <v>1.392600333333333</v>
       </c>
       <c r="H7">
-        <v>134.046774</v>
+        <v>4.177801000000001</v>
       </c>
       <c r="I7">
-        <v>0.9503760392785797</v>
+        <v>0.05460670042535784</v>
       </c>
       <c r="J7">
-        <v>0.9503760392785796</v>
+        <v>0.05460670042535784</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,214 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.613253666666666</v>
+        <v>4.534313</v>
       </c>
       <c r="N7">
-        <v>16.839761</v>
+        <v>13.602939</v>
       </c>
       <c r="O7">
-        <v>0.3861738312331279</v>
+        <v>0.3357458287780905</v>
       </c>
       <c r="P7">
-        <v>0.3861738312331279</v>
+        <v>0.3357458287780905</v>
       </c>
       <c r="Q7">
-        <v>250.812848553446</v>
+        <v>6.314485795237667</v>
       </c>
       <c r="R7">
-        <v>2257.315636981014</v>
+        <v>56.83037215713901</v>
       </c>
       <c r="S7">
-        <v>0.3670103562003748</v>
+        <v>0.01833397189114868</v>
       </c>
       <c r="T7">
-        <v>0.3670103562003747</v>
+        <v>0.01833397189114868</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>24.05622933333333</v>
+      </c>
+      <c r="H8">
+        <v>72.168688</v>
+      </c>
+      <c r="I8">
+        <v>0.943293834652995</v>
+      </c>
+      <c r="J8">
+        <v>0.943293834652995</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.048574</v>
+      </c>
+      <c r="N8">
+        <v>0.145722</v>
+      </c>
+      <c r="O8">
+        <v>0.003596689925699211</v>
+      </c>
+      <c r="P8">
+        <v>0.003596689925699211</v>
+      </c>
+      <c r="Q8">
+        <v>1.168507283637333</v>
+      </c>
+      <c r="R8">
+        <v>10.516565552736</v>
+      </c>
+      <c r="S8">
+        <v>0.003392735432070605</v>
+      </c>
+      <c r="T8">
+        <v>0.003392735432070605</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>24.05622933333333</v>
+      </c>
+      <c r="H9">
+        <v>72.168688</v>
+      </c>
+      <c r="I9">
+        <v>0.943293834652995</v>
+      </c>
+      <c r="J9">
+        <v>0.943293834652995</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>8.922308333333334</v>
+      </c>
+      <c r="N9">
+        <v>26.766925</v>
+      </c>
+      <c r="O9">
+        <v>0.6606574812962104</v>
+      </c>
+      <c r="P9">
+        <v>0.6606574812962104</v>
+      </c>
+      <c r="Q9">
+        <v>214.6370954493778</v>
+      </c>
+      <c r="R9">
+        <v>1931.7338590444</v>
+      </c>
+      <c r="S9">
+        <v>0.6231941289240917</v>
+      </c>
+      <c r="T9">
+        <v>0.6231941289240917</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>24.05622933333333</v>
+      </c>
+      <c r="H10">
+        <v>72.168688</v>
+      </c>
+      <c r="I10">
+        <v>0.943293834652995</v>
+      </c>
+      <c r="J10">
+        <v>0.943293834652995</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4.534313</v>
+      </c>
+      <c r="N10">
+        <v>13.602939</v>
+      </c>
+      <c r="O10">
+        <v>0.3357458287780905</v>
+      </c>
+      <c r="P10">
+        <v>0.3357458287780905</v>
+      </c>
+      <c r="Q10">
+        <v>109.0784733971147</v>
+      </c>
+      <c r="R10">
+        <v>981.7062605740321</v>
+      </c>
+      <c r="S10">
+        <v>0.3167069702968329</v>
+      </c>
+      <c r="T10">
+        <v>0.3167069702968329</v>
       </c>
     </row>
   </sheetData>
